--- a/数据源/项目工时人员分配.xlsx
+++ b/数据源/项目工时人员分配.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\芯三代\Sicentury\Documents\IPO\工时自动分配\数据源\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B349FD-F4E0-4E0D-A3CC-6CC6407AECE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0054F2F-00EF-42A8-8F8C-8A6AC97E5E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="801" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="865" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RD04" sheetId="7" r:id="rId1"/>
-    <sheet name="RD08" sheetId="4" r:id="rId2"/>
-    <sheet name="RD09" sheetId="2" r:id="rId3"/>
-    <sheet name="RD10" sheetId="11" r:id="rId4"/>
-    <sheet name="RD11" sheetId="8" r:id="rId5"/>
-    <sheet name="RD13" sheetId="9" r:id="rId6"/>
-    <sheet name="RD14" sheetId="3" r:id="rId7"/>
-    <sheet name="RD15" sheetId="6" r:id="rId8"/>
-    <sheet name="RD16" sheetId="10" r:id="rId9"/>
-    <sheet name="RD17" sheetId="5" r:id="rId10"/>
+    <sheet name="RD04（赵工）" sheetId="7" r:id="rId1"/>
+    <sheet name="RD07（叶工）" sheetId="11" r:id="rId2"/>
+    <sheet name="RD08（布工）" sheetId="4" r:id="rId3"/>
+    <sheet name="RD09（向工）" sheetId="2" r:id="rId4"/>
+    <sheet name="RD10" sheetId="13" r:id="rId5"/>
+    <sheet name="RD11（赵工）" sheetId="8" r:id="rId6"/>
+    <sheet name="RD12（叶工）" sheetId="12" r:id="rId7"/>
+    <sheet name="RD13（赵工）" sheetId="9" r:id="rId8"/>
+    <sheet name="RD14（吴博）" sheetId="3" r:id="rId9"/>
+    <sheet name="RD15（布工）" sheetId="6" r:id="rId10"/>
+    <sheet name="RD16（赵工）" sheetId="10" r:id="rId11"/>
+    <sheet name="RD17（郑工）" sheetId="5" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="41">
   <si>
     <t>蒲勇</t>
   </si>
@@ -95,6 +97,12 @@
     <t>李哲</t>
   </si>
   <si>
+    <t>布丛郝</t>
+  </si>
+  <si>
+    <t>苏亮</t>
+  </si>
+  <si>
     <t>卜苏琴</t>
   </si>
   <si>
@@ -105,9 +113,6 @@
   </si>
   <si>
     <t>黄青松</t>
-  </si>
-  <si>
-    <t>苏亮</t>
   </si>
   <si>
     <t>蔡培伦</t>
@@ -138,9 +143,6 @@
   </si>
   <si>
     <t>韩强强</t>
-  </si>
-  <si>
-    <t>布丛郝</t>
   </si>
   <si>
     <t>杨林</t>
@@ -174,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;/&quot;m;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +189,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -194,19 +197,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -217,23 +215,27 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -265,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -275,15 +277,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -562,7 +570,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1114,20 +1122,20 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="9"/>
+      <c r="B33" s="10"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="9"/>
+      <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B36" s="9"/>
+      <c r="B36" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1135,10 +1143,615 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45200</v>
+      </c>
+      <c r="C1" s="1">
+        <v>45231</v>
+      </c>
+      <c r="D1" s="1">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:X80"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28:N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.86328125" customWidth="1"/>
+    <col min="3" max="5" width="11.3984375" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="13" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45323</v>
+      </c>
+      <c r="C1" s="1">
+        <v>45352</v>
+      </c>
+      <c r="D1" s="1">
+        <v>45383</v>
+      </c>
+      <c r="E1" s="1">
+        <v>45413</v>
+      </c>
+      <c r="F1" s="1">
+        <v>45444</v>
+      </c>
+      <c r="G1" s="1">
+        <v>45474</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E49" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B55" s="4"/>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E80" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1241,25 +1854,25 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1327,23 +1940,23 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1351,7 +1964,303 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:XFC23"/>
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.796875" style="6" customWidth="1"/>
+    <col min="3" max="5" width="11.46484375" style="6" customWidth="1"/>
+    <col min="6" max="8" width="10.33203125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7">
+        <v>44562</v>
+      </c>
+      <c r="B1" s="7">
+        <v>44593</v>
+      </c>
+      <c r="C1" s="7">
+        <v>44621</v>
+      </c>
+      <c r="D1" s="7">
+        <v>44652</v>
+      </c>
+      <c r="E1" s="7">
+        <v>44682</v>
+      </c>
+      <c r="F1" s="7">
+        <v>44713</v>
+      </c>
+      <c r="G1" s="7">
+        <v>44743</v>
+      </c>
+      <c r="H1" s="7">
+        <v>44774</v>
+      </c>
+      <c r="I1" s="7">
+        <v>44805</v>
+      </c>
+      <c r="J1" s="7">
+        <v>44835</v>
+      </c>
+      <c r="K1" s="7">
+        <v>44866</v>
+      </c>
+      <c r="L1" s="7">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A23:D23"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -1359,257 +2268,202 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.86328125" style="8" customWidth="1"/>
-    <col min="3" max="5" width="11.3984375" style="8" customWidth="1"/>
-    <col min="6" max="14" width="10.33203125" style="8" customWidth="1"/>
-    <col min="15" max="16383" width="9" style="8"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.86328125" customWidth="1"/>
+    <col min="3" max="5" width="11.3984375" customWidth="1"/>
+    <col min="6" max="14" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7">
+      <c r="A1" s="1">
         <v>44562</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="1">
         <v>44593</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="1">
         <v>44621</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="1">
         <v>44652</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="1">
         <v>44682</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B10" s="8" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>17</v>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B12" s="8" t="s">
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1795,18 +2649,18 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34722B7C-8D50-4FA5-8A9C-C97148E6369C}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14870858-EED2-4ECF-A96F-1601A7BEB547}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1836,25 +2690,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -1890,18 +2744,6 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -1913,18 +2755,6 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -1936,18 +2766,6 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -1957,18 +2775,6 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1991,9 +2797,6 @@
       <c r="F8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
@@ -2031,36 +2834,15 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2072,15 +2854,6 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
         <v>8</v>
       </c>
       <c r="G12" t="s">
@@ -2116,12 +2889,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z57"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O33" sqref="N33:O33"/>
+      <selection activeCell="Y11" sqref="Y11:Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2308,16 +3081,16 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P3" t="s">
         <v>4</v>
       </c>
       <c r="Q3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
         <v>3</v>
@@ -2370,19 +3143,19 @@
         <v>5</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P4" t="s">
         <v>10</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R4" t="s">
         <v>8</v>
@@ -2435,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N5" t="s">
         <v>4</v>
@@ -2450,7 +3223,7 @@
         <v>10</v>
       </c>
       <c r="R5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S5" t="s">
         <v>8</v>
@@ -2488,40 +3261,40 @@
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" t="s">
         <v>19</v>
       </c>
-      <c r="M6" t="s">
+      <c r="T6" t="s">
         <v>20</v>
-      </c>
-      <c r="N6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" t="s">
-        <v>7</v>
-      </c>
-      <c r="S6" t="s">
-        <v>17</v>
-      </c>
-      <c r="T6" t="s">
-        <v>18</v>
       </c>
       <c r="U6" t="s">
         <v>2</v>
@@ -2529,28 +3302,28 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
         <v>7</v>
@@ -2562,22 +3335,22 @@
         <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q7" t="s">
         <v>12</v>
       </c>
       <c r="R7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S7" t="s">
         <v>7</v>
@@ -2615,28 +3388,28 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
         <v>4</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" t="s">
         <v>22</v>
-      </c>
-      <c r="R8" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" t="s">
-        <v>20</v>
       </c>
       <c r="T8" t="s">
         <v>15</v>
@@ -2656,10 +3429,10 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
         <v>4</v>
@@ -2671,10 +3444,10 @@
         <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q9" t="s">
         <v>9</v>
@@ -2686,7 +3459,7 @@
         <v>2</v>
       </c>
       <c r="T9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U9" t="s">
         <v>14</v>
@@ -2703,7 +3476,7 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -2721,19 +3494,19 @@
         <v>12</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S10" t="s">
         <v>15</v>
       </c>
       <c r="T10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="U10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
@@ -2744,10 +3517,10 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -2759,22 +3532,22 @@
         <v>15</v>
       </c>
       <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
         <v>23</v>
       </c>
-      <c r="L11" t="s">
-        <v>22</v>
-      </c>
       <c r="R11" t="s">
         <v>12</v>
       </c>
       <c r="S11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T11" t="s">
         <v>12</v>
       </c>
       <c r="U11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
@@ -2785,31 +3558,31 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
         <v>24</v>
       </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" t="s">
         <v>23</v>
       </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" t="s">
-        <v>22</v>
-      </c>
       <c r="S12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="T12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U12" t="s">
         <v>12</v>
@@ -2817,16 +3590,16 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
@@ -2844,45 +3617,45 @@
         <v>12</v>
       </c>
       <c r="T13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R14" t="s">
         <v>26</v>
       </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="S14" t="s">
         <v>23</v>
-      </c>
-      <c r="J14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" t="s">
-        <v>22</v>
-      </c>
-      <c r="R14" t="s">
-        <v>25</v>
-      </c>
-      <c r="S14" t="s">
-        <v>22</v>
       </c>
       <c r="T14" t="s">
         <v>9</v>
       </c>
       <c r="U14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.4">
@@ -2893,19 +3666,19 @@
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S15" t="s">
         <v>9</v>
       </c>
       <c r="T15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U15" t="s">
         <v>9</v>
@@ -2919,30 +3692,30 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" t="s">
         <v>28</v>
-      </c>
-      <c r="U16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
@@ -2951,38 +3724,38 @@
         <v>12</v>
       </c>
       <c r="S17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U17" t="s">
         <v>29</v>
-      </c>
-      <c r="U17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" t="s">
+        <v>26</v>
+      </c>
+      <c r="T18" t="s">
+        <v>26</v>
+      </c>
+      <c r="U18" t="s">
         <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" t="s">
-        <v>25</v>
-      </c>
-      <c r="T18" t="s">
-        <v>25</v>
-      </c>
-      <c r="U18" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.4">
       <c r="U19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="4:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2990,7 +3763,7 @@
       <c r="D27" s="2"/>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D47" s="5"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C56" s="4"/>
@@ -2999,18 +3772,381 @@
       <c r="C57" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:U24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.796875" style="6" customWidth="1"/>
+    <col min="3" max="5" width="11.46484375" style="6" customWidth="1"/>
+    <col min="6" max="8" width="10.33203125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7">
+        <v>45017</v>
+      </c>
+      <c r="B1" s="7">
+        <v>45047</v>
+      </c>
+      <c r="C1" s="7">
+        <v>45078</v>
+      </c>
+      <c r="D1" s="7">
+        <v>45108</v>
+      </c>
+      <c r="E1" s="7">
+        <v>45139</v>
+      </c>
+      <c r="F1" s="7">
+        <v>45170</v>
+      </c>
+      <c r="G1" s="7">
+        <v>45200</v>
+      </c>
+      <c r="H1" s="7">
+        <v>45231</v>
+      </c>
+      <c r="I1" s="7">
+        <v>45261</v>
+      </c>
+      <c r="J1" s="7">
+        <v>45292</v>
+      </c>
+      <c r="K1" s="7">
+        <v>45323</v>
+      </c>
+      <c r="L1" s="7">
+        <v>45352</v>
+      </c>
+      <c r="M1" s="7">
+        <v>45383</v>
+      </c>
+      <c r="N1" s="7">
+        <v>45413</v>
+      </c>
+      <c r="O1" s="7">
+        <v>45444</v>
+      </c>
+      <c r="P1" s="7">
+        <v>45474</v>
+      </c>
+      <c r="Q1" s="7">
+        <v>45505</v>
+      </c>
+      <c r="R1" s="7">
+        <v>45536</v>
+      </c>
+      <c r="S1" s="7">
+        <v>45566</v>
+      </c>
+      <c r="T1" s="7">
+        <v>45597</v>
+      </c>
+      <c r="U1" s="7">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="U5" s="9"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A23:D23"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3139,7 +4275,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
@@ -3189,16 +4325,16 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
         <v>8</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N4" t="s">
         <v>3</v>
@@ -3209,16 +4345,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -3230,7 +4366,7 @@
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
@@ -3265,7 +4401,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -3294,7 +4430,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -3309,7 +4445,7 @@
         <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L7" t="s">
         <v>10</v>
@@ -3323,25 +4459,25 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
@@ -3350,7 +4486,7 @@
         <v>33</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8" t="s">
         <v>15</v>
@@ -3361,25 +4497,25 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s">
         <v>9</v>
@@ -3388,47 +4524,47 @@
         <v>14</v>
       </c>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" t="s">
-        <v>25</v>
-      </c>
       <c r="M10" t="s">
         <v>12</v>
       </c>
       <c r="N10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>
       </c>
       <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
         <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
       </c>
       <c r="L11" t="s">
         <v>33</v>
@@ -3437,7 +4573,7 @@
         <v>9</v>
       </c>
       <c r="N11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
@@ -3451,7 +4587,7 @@
         <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N12" t="s">
         <v>9</v>
@@ -3459,15 +4595,15 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="M13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N13" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="M14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N14" t="s">
         <v>34</v>
@@ -3478,7 +4614,7 @@
         <v>33</v>
       </c>
       <c r="N15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.4">
@@ -3501,7 +4637,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
+      <c r="B45" s="4"/>
     </row>
     <row r="67" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E67" s="3"/>
@@ -3522,17 +4658,17 @@
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E73" s="6"/>
+      <c r="E73" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -3586,31 +4722,31 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
@@ -3644,74 +4780,74 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
         <v>36</v>
@@ -3732,623 +4868,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="7">
-        <v>45170</v>
-      </c>
-      <c r="B1" s="7">
-        <v>45200</v>
-      </c>
-      <c r="C1" s="7">
-        <v>45231</v>
-      </c>
-      <c r="D1" s="7">
-        <v>45261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:X80"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:AJ2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.86328125" customWidth="1"/>
-    <col min="3" max="5" width="11.3984375" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="13" width="10.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" ht="15.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B1" s="1">
-        <v>45323</v>
-      </c>
-      <c r="C1" s="1">
-        <v>45352</v>
-      </c>
-      <c r="D1" s="1">
-        <v>45383</v>
-      </c>
-      <c r="E1" s="1">
-        <v>45413</v>
-      </c>
-      <c r="F1" s="1">
-        <v>45444</v>
-      </c>
-      <c r="G1" s="1">
-        <v>45474</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E49" s="3"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B55" s="5"/>
-    </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E80" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/数据源/项目工时人员分配.xlsx
+++ b/数据源/项目工时人员分配.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\芯三代\Sicentury\Documents\IPO\工时自动分配\数据源\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0054F2F-00EF-42A8-8F8C-8A6AC97E5E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D137CB3-A0AD-4D74-AEB3-C0663FDE8303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="865" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="865" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RD04（赵工）" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="41">
   <si>
     <t>蒲勇</t>
   </si>
@@ -1750,7 +1750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -2891,91 +2891,85 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Z57"/>
+  <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11:Y12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" customWidth="1"/>
-    <col min="5" max="7" width="11.3984375" customWidth="1"/>
-    <col min="8" max="15" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.86328125" customWidth="1"/>
+    <col min="3" max="5" width="11.3984375" customWidth="1"/>
+    <col min="6" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" ht="15.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
-        <v>44866</v>
+        <v>44927</v>
       </c>
       <c r="B1" s="1">
-        <v>44896</v>
+        <v>44958</v>
       </c>
       <c r="C1" s="1">
-        <v>44927</v>
+        <v>44986</v>
       </c>
       <c r="D1" s="1">
-        <v>44958</v>
+        <v>45017</v>
       </c>
       <c r="E1" s="1">
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="F1" s="1">
-        <v>45017</v>
+        <v>45078</v>
       </c>
       <c r="G1" s="1">
-        <v>45047</v>
+        <v>45108</v>
       </c>
       <c r="H1" s="1">
-        <v>45078</v>
+        <v>45139</v>
       </c>
       <c r="I1" s="1">
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="J1" s="1">
-        <v>45139</v>
+        <v>45200</v>
       </c>
       <c r="K1" s="1">
-        <v>45170</v>
+        <v>45231</v>
       </c>
       <c r="L1" s="1">
-        <v>45200</v>
+        <v>45261</v>
       </c>
       <c r="M1" s="1">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="N1" s="1">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="O1" s="1">
-        <v>45292</v>
+        <v>45352</v>
       </c>
       <c r="P1" s="1">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="Q1" s="1">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="R1" s="1">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="S1" s="1">
-        <v>45413</v>
-      </c>
-      <c r="T1" s="1">
-        <v>45444</v>
-      </c>
-      <c r="U1" s="1">
         <v>45474</v>
       </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2995,52 +2989,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="S2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3060,10 +3048,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
         <v>3</v>
@@ -3072,63 +3060,57 @@
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" t="s">
         <v>5</v>
@@ -3137,40 +3119,34 @@
         <v>5</v>
       </c>
       <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="s">
         <v>5</v>
       </c>
-      <c r="L4" t="s">
+      <c r="R4" t="s">
         <v>5</v>
       </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" t="s">
-        <v>8</v>
-      </c>
       <c r="S4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T4" t="s">
-        <v>5</v>
-      </c>
-      <c r="U4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3190,117 +3166,105 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R5" t="s">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="S5" t="s">
-        <v>8</v>
-      </c>
-      <c r="T5" t="s">
-        <v>8</v>
-      </c>
-      <c r="U5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
       </c>
       <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" t="s">
         <v>19</v>
       </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>14</v>
-      </c>
       <c r="R6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="S6" t="s">
-        <v>19</v>
-      </c>
-      <c r="T6" t="s">
-        <v>20</v>
-      </c>
-      <c r="U6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3320,456 +3284,444 @@
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I7" t="s">
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="N7" t="s">
         <v>23</v>
       </c>
+      <c r="O7" t="s">
+        <v>12</v>
+      </c>
       <c r="P7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="R7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="S7" t="s">
-        <v>7</v>
-      </c>
-      <c r="T7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
       </c>
       <c r="J8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
         <v>21</v>
       </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="G9" t="s">
         <v>4</v>
       </c>
-      <c r="M8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" t="s">
-        <v>22</v>
-      </c>
-      <c r="T8" t="s">
-        <v>15</v>
-      </c>
-      <c r="U8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="I9" t="s">
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" t="s">
         <v>18</v>
       </c>
-      <c r="M9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>9</v>
-      </c>
-      <c r="R9" t="s">
-        <v>14</v>
-      </c>
-      <c r="S9" t="s">
-        <v>2</v>
-      </c>
-      <c r="T9" t="s">
-        <v>24</v>
-      </c>
-      <c r="U9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="D10" t="s">
+      <c r="Q10" t="s">
         <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>26</v>
       </c>
       <c r="R10" t="s">
         <v>18</v>
       </c>
       <c r="S10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
         <v>15</v>
       </c>
-      <c r="T10" t="s">
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" t="s">
         <v>18</v>
       </c>
-      <c r="U10" t="s">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" t="s">
         <v>23</v>
       </c>
-      <c r="R11" t="s">
-        <v>12</v>
-      </c>
-      <c r="S11" t="s">
-        <v>24</v>
-      </c>
-      <c r="T11" t="s">
-        <v>12</v>
-      </c>
-      <c r="U11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="Q12" t="s">
         <v>18</v>
       </c>
       <c r="R12" t="s">
         <v>23</v>
       </c>
       <c r="S12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="T12" t="s">
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" t="s">
         <v>23</v>
       </c>
-      <c r="U12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="D13" t="s">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R14" t="s">
+        <v>9</v>
+      </c>
+      <c r="S14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
         <v>25</v>
       </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="H15" t="s">
         <v>25</v>
       </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="Q15" t="s">
         <v>9</v>
       </c>
-      <c r="S13" t="s">
-        <v>12</v>
-      </c>
-      <c r="T13" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" t="s">
-        <v>26</v>
-      </c>
-      <c r="S14" t="s">
-        <v>23</v>
-      </c>
-      <c r="T14" t="s">
-        <v>9</v>
-      </c>
-      <c r="U14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="R15" t="s">
         <v>28</v>
-      </c>
-      <c r="I15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" t="s">
-        <v>25</v>
       </c>
       <c r="S15" t="s">
         <v>9</v>
       </c>
-      <c r="T15" t="s">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" t="s">
         <v>28</v>
       </c>
-      <c r="U15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" t="s">
-        <v>18</v>
+      <c r="R16" t="s">
+        <v>29</v>
       </c>
       <c r="S16" t="s">
         <v>28</v>
       </c>
-      <c r="T16" t="s">
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" t="s">
         <v>29</v>
       </c>
-      <c r="U16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.4">
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" t="s">
-        <v>12</v>
+      <c r="R17" t="s">
+        <v>30</v>
       </c>
       <c r="S17" t="s">
         <v>29</v>
       </c>
-      <c r="T17" t="s">
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" t="s">
         <v>30</v>
       </c>
-      <c r="U17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.4">
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" t="s">
-        <v>23</v>
-      </c>
-      <c r="S18" t="s">
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="S19" t="s">
         <v>26</v>
       </c>
-      <c r="T18" t="s">
-        <v>26</v>
-      </c>
-      <c r="U18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.4">
-      <c r="U19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="4:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="4:21" x14ac:dyDescent="0.4">
-      <c r="D27" s="2"/>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D47" s="4"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C57" s="4"/>
+    </row>
+    <row r="23" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B47" s="4"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/数据源/项目工时人员分配.xlsx
+++ b/数据源/项目工时人员分配.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\芯三代\Sicentury\Documents\IPO\工时自动分配\数据源\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D137CB3-A0AD-4D74-AEB3-C0663FDE8303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A69C88-7663-4108-A848-7206F95713AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="865" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="865" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RD04（赵工）" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="41">
   <si>
     <t>蒲勇</t>
   </si>
@@ -2657,38 +2657,50 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14870858-EED2-4ECF-A96F-1601A7BEB547}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B1" s="1">
+        <v>44896</v>
+      </c>
+      <c r="C1" s="1">
+        <v>44927</v>
+      </c>
+      <c r="D1" s="1">
+        <v>44958</v>
+      </c>
+      <c r="E1" s="1">
         <v>44986</v>
       </c>
-      <c r="B1" s="1">
+      <c r="F1" s="1">
         <v>45017</v>
       </c>
-      <c r="C1" s="1">
+      <c r="G1" s="1">
         <v>45047</v>
       </c>
-      <c r="D1" s="1">
+      <c r="H1" s="1">
         <v>45078</v>
       </c>
-      <c r="E1" s="1">
+      <c r="I1" s="1">
         <v>45108</v>
       </c>
-      <c r="F1" s="1">
+      <c r="J1" s="1">
         <v>45139</v>
       </c>
-      <c r="G1" s="1">
+      <c r="K1" s="1">
         <v>45170</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2710,8 +2722,20 @@
       <c r="G2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2733,19 +2757,37 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2755,8 +2797,20 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2766,8 +2820,20 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2777,14 +2843,20 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>40</v>
       </c>
@@ -2797,8 +2869,20 @@
       <c r="F8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2820,56 +2904,77 @@
       <c r="G9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>14</v>
       </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
         <v>8</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
+      <c r="K12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
         <v>15</v>
       </c>
@@ -2880,12 +2985,25 @@
         <v>15</v>
       </c>
       <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2893,7 +3011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
